--- a/Bikroy.xlsx
+++ b/Bikroy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Training\Manul Testing\My Manual Testing Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Training\Manul Testing\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A0085-53D7-4EC1-AF7F-99CA31D12196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B962C1F-3B15-4C1E-ABC5-56E7112422EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{982FE83C-964A-4D5C-B5F5-8949DF3C54E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{982FE83C-964A-4D5C-B5F5-8949DF3C54E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1987,6 +1987,79 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2018,88 +2091,15 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -2447,7 +2447,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3622,7 +3622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4EEDF5-A98B-4AC1-8A32-56C133F5B1B2}">
   <dimension ref="J1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
@@ -3633,14 +3633,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="10:17" ht="21">
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="10:17">
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3652,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDC5E3-B182-40E6-BB6E-EFA85F1D917C}">
   <dimension ref="A1:Y251"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
@@ -3677,39 +3677,39 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:25" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="25.5" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
       <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
@@ -3724,11 +3724,11 @@
       <c r="B7" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
       <c r="I7" s="34" t="str">
         <f>C13</f>
         <v>PASS</v>
@@ -3743,13 +3743,13 @@
       <c r="B8" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
       <c r="I8" s="34" t="str">
         <f>D13</f>
         <v>FAIL</v>
@@ -3764,20 +3764,20 @@
       <c r="B9" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
       <c r="I9" s="34" t="str">
         <f>E13</f>
         <v>Not Executed</v>
       </c>
       <c r="J9" s="33">
         <f>E15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>233</v>
@@ -3797,11 +3797,11 @@
       <c r="B10" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
       <c r="I10" s="36" t="str">
         <f>F13</f>
         <v>Out of Scope</v>
@@ -3813,22 +3813,22 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="B13" s="41" t="s">
@@ -3843,7 +3843,7 @@
       <c r="E13" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="70" t="s">
         <v>310</v>
       </c>
       <c r="G13" s="43" t="s">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="E14" s="39">
         <f>TestCase!K4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="30">
         <f>G16</f>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="G14" s="50">
         <f>TestCase!K5</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="E15" s="47">
         <f>SUM(E14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="47">
         <f>G16</f>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="G15" s="49">
         <f>SUM(G14)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="23"/>
@@ -3962,21 +3962,21 @@
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
         <v>243</v>
@@ -3986,11 +3986,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45" t="s">
         <v>246</v>
@@ -4000,11 +4000,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>246</v>
@@ -4015,306 +4015,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="67"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="67"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="67"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="67"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="67"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="67"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="67"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="67"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="67"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B40" s="67"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="67"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="67"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="67"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="67"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="67"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="67"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="67"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="67"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="67"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="67"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="67"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4515,30 +4515,6 @@
     <row r="251" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -4551,6 +4527,30 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:K12 I7:J10">
     <cfRule type="colorScale" priority="2">
@@ -4573,8 +4573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD321E3E-AE1E-4AD7-A87D-C9CACFEAD5A8}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4610,10 +4610,10 @@
         <v>265</v>
       </c>
       <c r="H1" s="13"/>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="72"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="19.2" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -4668,8 +4668,8 @@
         <v>269</v>
       </c>
       <c r="K4" s="8">
-        <f>COUNTIF(I7:I44, "WARNING")</f>
-        <v>0</v>
+        <f>COUNTIF(I7:I44, "Not Executed")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="K5" s="30">
         <f>SUM(K2:K4)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -5781,52 +5781,52 @@
   <sheetData>
     <row r="5" spans="3:3" ht="124.2" customHeight="1" thickBot="1"/>
     <row r="6" spans="3:3" ht="35.4" customHeight="1" thickBot="1">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="58" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="3:3" ht="18" customHeight="1">
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="55" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="3:3" ht="17.399999999999999" customHeight="1">
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="56" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="56" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="3:3" ht="100.8">
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="56" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="56" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="56" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="57" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="15" spans="3:3" ht="15" thickBot="1">
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="54" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5853,297 +5853,297 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="35.77734375" customWidth="1"/>
     <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="61" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="86" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B6" s="83">
+    <row r="6" spans="2:8" s="65" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="62">
         <v>1</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="62" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="86" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B7" s="83">
+    <row r="7" spans="2:8" s="65" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="62">
         <v>2</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="62" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="89" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B8" s="83">
+    <row r="8" spans="2:8" s="68" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
+      <c r="B8" s="62">
         <v>3</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="62" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="89" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B9" s="83">
+    <row r="9" spans="2:8" s="68" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B9" s="62">
         <v>4</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="62" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="89" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B10" s="83">
+    <row r="10" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="62">
         <v>5</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="62" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="89" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="83">
+    <row r="11" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="62">
         <v>6</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="89" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B12" s="83">
+    <row r="12" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B12" s="62">
         <v>7</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="89" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B13" s="83">
+    <row r="13" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B13" s="62">
         <v>8</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="89" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="83">
+    <row r="14" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B14" s="62">
         <v>9</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="89" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B15" s="83">
+    <row r="15" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B15" s="62">
         <v>10</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="62" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="89" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B16" s="83">
+    <row r="16" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B16" s="62">
         <v>11</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="62" t="s">
         <v>296</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="90"/>
+      <c r="B17" s="69"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="90"/>
+      <c r="B19" s="69"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="90"/>
+      <c r="B20" s="69"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="90"/>
+      <c r="B21" s="69"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="90"/>
+      <c r="B22" s="69"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="90"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="90"/>
+      <c r="B24" s="69"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="90"/>
+      <c r="B25" s="69"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="90"/>
+      <c r="B26" s="69"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="90"/>
+      <c r="B27" s="69"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="90"/>
+      <c r="B28" s="69"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="90"/>
+      <c r="B29" s="69"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="90"/>
+      <c r="B30" s="69"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="90"/>
+      <c r="B31" s="69"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="90"/>
+      <c r="B32" s="69"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="90"/>
+      <c r="B33" s="69"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="90"/>
+      <c r="B34" s="69"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="90"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="90"/>
+      <c r="B36" s="69"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="90"/>
+      <c r="B37" s="69"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="90"/>
+      <c r="B38" s="69"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="90"/>
+      <c r="B39" s="69"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="90"/>
+      <c r="B40" s="69"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="90"/>
+      <c r="B41" s="69"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="90"/>
+      <c r="B42" s="69"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="90"/>
+      <c r="B43" s="69"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="90"/>
+      <c r="B44" s="69"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="90"/>
+      <c r="B45" s="69"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="90"/>
+      <c r="B46" s="69"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="90"/>
+      <c r="B47" s="69"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="90"/>
+      <c r="B48" s="69"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="90"/>
+      <c r="B49" s="69"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="90"/>
+      <c r="B50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6154,6 +6154,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009127BD2B00F3D4418F8B1A1DE2622F27" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c85aa63cd1dea6e40c8924b6d0684b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524" xmlns:ns4="598b19a9-468d-4fa1-bbd0-605700564065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7a27c376ae090ec9e3df79c674288b5" ns3:_="" ns4:_="">
     <xsd:import namespace="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
@@ -6364,12 +6370,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6380,6 +6380,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BAC2BB8-0323-479F-9AFD-3C9F0DCA6209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6398,23 +6415,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A9A59F-905C-426B-BF04-40C4D400CA49}">
   <ds:schemaRefs>

--- a/Bikroy.xlsx
+++ b/Bikroy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Training\Manul Testing\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B962C1F-3B15-4C1E-ABC5-56E7112422EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5DBA67-21A3-494E-8A18-E6814375ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{982FE83C-964A-4D5C-B5F5-8949DF3C54E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{982FE83C-964A-4D5C-B5F5-8949DF3C54E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1147,9 +1147,6 @@
     <t>Test Metrics</t>
   </si>
   <si>
-    <t>#SL</t>
-  </si>
-  <si>
     <t>Metrics</t>
   </si>
   <si>
@@ -1241,6 +1238,9 @@
   </si>
   <si>
     <t>Mind Map for Bikroy Website</t>
+  </si>
+  <si>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1598,8 +1598,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2008,28 +2020,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,25 +2030,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2091,14 +2067,50 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3633,14 +3645,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="10:17" ht="21">
-      <c r="J1" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="J1" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="10:17">
-      <c r="Q2" s="71"/>
+      <c r="Q2" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3652,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDC5E3-B182-40E6-BB6E-EFA85F1D917C}">
   <dimension ref="A1:Y251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3677,39 +3689,39 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:25" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="25.5" customHeight="1">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
@@ -3724,11 +3736,11 @@
       <c r="B7" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="I7" s="34" t="str">
         <f>C13</f>
         <v>PASS</v>
@@ -3743,13 +3755,13 @@
       <c r="B8" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
       <c r="I8" s="34" t="str">
         <f>D13</f>
         <v>FAIL</v>
@@ -3764,13 +3776,13 @@
       <c r="B9" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
       <c r="I9" s="34" t="str">
         <f>E13</f>
         <v>Not Executed</v>
@@ -3797,11 +3809,11 @@
       <c r="B10" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="I10" s="36" t="str">
         <f>F13</f>
         <v>Out of Scope</v>
@@ -3813,22 +3825,22 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="B13" s="41" t="s">
@@ -3843,8 +3855,8 @@
       <c r="E13" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="70" t="s">
-        <v>310</v>
+      <c r="F13" s="63" t="s">
+        <v>309</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>239</v>
@@ -3861,15 +3873,15 @@
       <c r="A14" s="21"/>
       <c r="B14" s="40"/>
       <c r="C14" s="37">
-        <f>TestCase!K2</f>
+        <f>TestCase!J2</f>
         <v>35</v>
       </c>
       <c r="D14" s="38">
-        <f>TestCase!K3</f>
+        <f>TestCase!J3</f>
         <v>1</v>
       </c>
       <c r="E14" s="39">
-        <f>TestCase!K4</f>
+        <f>TestCase!J4</f>
         <v>2</v>
       </c>
       <c r="F14" s="30">
@@ -3877,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="50">
-        <f>TestCase!K5</f>
+        <f>TestCase!J5</f>
         <v>38</v>
       </c>
       <c r="H14" s="21"/>
@@ -3962,21 +3974,21 @@
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
         <v>243</v>
@@ -3986,11 +3998,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45" t="s">
         <v>246</v>
@@ -4000,11 +4012,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="68" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>246</v>
@@ -4015,306 +4027,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="73"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="73"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="75" t="s">
+      <c r="D51" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="73"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4515,6 +4527,30 @@
     <row r="251" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -4527,30 +4563,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:K12 I7:J10">
     <cfRule type="colorScale" priority="2">
@@ -4573,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD321E3E-AE1E-4AD7-A87D-C9CACFEAD5A8}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4600,20 +4612,20 @@
       <c r="B1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="91" t="s">
+      <c r="G1" s="13"/>
+      <c r="I1" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="92"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="19.2" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -4622,29 +4634,29 @@
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6">
+      <c r="J2" s="6">
         <f>COUNTIF(I7:I44, "PASS")</f>
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.2" customHeight="1">
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="10">
         <f>COUNTIF(I7:I44, "FAIL")</f>
         <v>1</v>
       </c>
@@ -4654,20 +4666,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="J4" s="12" t="s">
+      <c r="G4" s="13"/>
+      <c r="I4" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="8">
+      <c r="J4" s="8">
         <f>COUNTIF(I7:I44, "Not Executed")</f>
         <v>2</v>
       </c>
@@ -4679,19 +4691,19 @@
       <c r="B5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="J5" s="12" t="s">
+      <c r="G5" s="13"/>
+      <c r="I5" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="30">
-        <f>SUM(K2:K4)</f>
+      <c r="J5" s="30">
+        <f>SUM(J2:J4)</f>
         <v>38</v>
       </c>
     </row>
@@ -5713,9 +5725,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{1BA256BE-6669-437E-872F-A62BB6329F82}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{D5959FEF-C47E-43B9-845D-E43F94595F63}"/>
@@ -5843,8 +5852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A719277-218B-4FED-849A-1B85BDF5709B}">
   <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -5858,292 +5867,292 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="D5" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="61" t="s">
+    </row>
+    <row r="6" spans="2:8" s="60" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="89">
+        <v>1</v>
+      </c>
+      <c r="C6" s="90" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="65" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B6" s="62">
-        <v>1</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="D6" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="E6" s="89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="60" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="89">
+        <v>2</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="D7" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="61" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
+      <c r="B8" s="89">
+        <v>3</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="61" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B9" s="89">
+        <v>4</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="65" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B7" s="62">
-        <v>2</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="68" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B8" s="62">
-        <v>3</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="68" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B9" s="62">
-        <v>4</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="67" t="s">
+    <row r="10" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="89">
+        <v>5</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B10" s="62">
-        <v>5</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="D10" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="E10" s="89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="61" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="89">
+        <v>6</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="68" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="62">
-        <v>6</v>
-      </c>
-      <c r="C11" s="66" t="s">
+      <c r="D11" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="E11" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="E11" s="62" t="s">
+    </row>
+    <row r="12" spans="2:8" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B12" s="89">
+        <v>7</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B12" s="62">
-        <v>7</v>
-      </c>
-      <c r="C12" s="66" t="s">
+      <c r="D12" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="E12" s="89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B13" s="89">
+        <v>8</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="68" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B13" s="62">
-        <v>8</v>
-      </c>
-      <c r="C13" s="66" t="s">
+      <c r="D13" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="E13" s="89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B14" s="89">
+        <v>9</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="62">
-        <v>9</v>
-      </c>
-      <c r="C14" s="66" t="s">
+      <c r="D14" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="E14" s="89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B15" s="89">
+        <v>10</v>
+      </c>
+      <c r="C15" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B15" s="62">
-        <v>10</v>
-      </c>
-      <c r="C15" s="66" t="s">
+      <c r="D15" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="E15" s="89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B16" s="89">
+        <v>11</v>
+      </c>
+      <c r="C16" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="68" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B16" s="62">
-        <v>11</v>
-      </c>
-      <c r="C16" s="66" t="s">
+      <c r="D16" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>296</v>
+      <c r="E16" s="89" t="s">
+        <v>295</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="69"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="69"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="69"/>
+      <c r="B20" s="62"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="69"/>
+      <c r="B21" s="62"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="69"/>
+      <c r="B22" s="62"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="69"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="69"/>
+      <c r="B24" s="62"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="69"/>
+      <c r="B25" s="62"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="69"/>
+      <c r="B26" s="62"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="69"/>
+      <c r="B27" s="62"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="69"/>
+      <c r="B28" s="62"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="69"/>
+      <c r="B29" s="62"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="69"/>
+      <c r="B30" s="62"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="69"/>
+      <c r="B31" s="62"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="69"/>
+      <c r="B32" s="62"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="69"/>
+      <c r="B33" s="62"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="69"/>
+      <c r="B34" s="62"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="69"/>
+      <c r="B35" s="62"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="69"/>
+      <c r="B36" s="62"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="69"/>
+      <c r="B37" s="62"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="69"/>
+      <c r="B38" s="62"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="69"/>
+      <c r="B39" s="62"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="69"/>
+      <c r="B40" s="62"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="69"/>
+      <c r="B41" s="62"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="69"/>
+      <c r="B42" s="62"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="69"/>
+      <c r="B43" s="62"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="69"/>
+      <c r="B44" s="62"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="69"/>
+      <c r="B45" s="62"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="69"/>
+      <c r="B46" s="62"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="69"/>
+      <c r="B47" s="62"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="69"/>
+      <c r="B48" s="62"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="69"/>
+      <c r="B49" s="62"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="69"/>
+      <c r="B50" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6154,12 +6163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009127BD2B00F3D4418F8B1A1DE2622F27" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c85aa63cd1dea6e40c8924b6d0684b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524" xmlns:ns4="598b19a9-468d-4fa1-bbd0-605700564065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7a27c376ae090ec9e3df79c674288b5" ns3:_="" ns4:_="">
     <xsd:import namespace="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
@@ -6370,6 +6373,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6380,23 +6389,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BAC2BB8-0323-479F-9AFD-3C9F0DCA6209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6415,6 +6407,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A9A59F-905C-426B-BF04-40C4D400CA49}">
   <ds:schemaRefs>

--- a/Bikroy.xlsx
+++ b/Bikroy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA Training\Manul Testing\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5DBA67-21A3-494E-8A18-E6814375ED7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA7CD1-A94D-40A9-83C7-FDA0B9B1FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{982FE83C-964A-4D5C-B5F5-8949DF3C54E2}"/>
   </bookViews>
@@ -2036,6 +2036,48 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2067,50 +2109,8 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3634,7 +3634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4EEDF5-A98B-4AC1-8A32-56C133F5B1B2}">
   <dimension ref="J1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
@@ -3664,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDDC5E3-B182-40E6-BB6E-EFA85F1D917C}">
   <dimension ref="A1:Y251"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3689,39 +3689,39 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:25" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="25.5" customHeight="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
@@ -3736,11 +3736,11 @@
       <c r="B7" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
       <c r="I7" s="34" t="str">
         <f>C13</f>
         <v>PASS</v>
@@ -3755,13 +3755,13 @@
       <c r="B8" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
       <c r="I8" s="34" t="str">
         <f>D13</f>
         <v>FAIL</v>
@@ -3776,13 +3776,13 @@
       <c r="B9" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
       <c r="I9" s="34" t="str">
         <f>E13</f>
         <v>Not Executed</v>
@@ -3809,11 +3809,11 @@
       <c r="B10" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
       <c r="I10" s="36" t="str">
         <f>F13</f>
         <v>Out of Scope</v>
@@ -3825,22 +3825,22 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="B13" s="41" t="s">
@@ -3974,21 +3974,21 @@
       <c r="R17" s="20"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44" t="s">
         <v>243</v>
@@ -3998,11 +3998,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45" t="s">
         <v>246</v>
@@ -4012,11 +4012,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>246</v>
@@ -4063,270 +4063,270 @@
       <c r="G26" s="81"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="82"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="82"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B32" s="82"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="82"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="82"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B36" s="82"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="82"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="82"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B40" s="82"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="82"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="82"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B44" s="82"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="82"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="82"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="82"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="82"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="82"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B52" s="82"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B53" s="82"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="82"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4527,30 +4527,6 @@
     <row r="251" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -4563,6 +4539,30 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="I12:K12 I7:J10">
     <cfRule type="colorScale" priority="2">
@@ -4585,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD321E3E-AE1E-4AD7-A87D-C9CACFEAD5A8}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -5867,190 +5867,190 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1"/>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="2:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="68" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="60" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B6" s="89">
+      <c r="B6" s="70">
         <v>1</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="70" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="60" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B7" s="89">
+      <c r="B7" s="70">
         <v>2</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="70" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="61" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B8" s="89">
+      <c r="B8" s="70">
         <v>3</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="70" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="61" customFormat="1" ht="28.8" customHeight="1" thickBot="1">
-      <c r="B9" s="89">
+      <c r="B9" s="70">
         <v>4</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="70" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B10" s="89">
+      <c r="B10" s="70">
         <v>5</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="70" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="61" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="89">
+      <c r="B11" s="70">
         <v>6</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B12" s="89">
+      <c r="B12" s="70">
         <v>7</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="61" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B13" s="89">
+      <c r="B13" s="70">
         <v>8</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="89">
+      <c r="B14" s="70">
         <v>9</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B15" s="89">
+      <c r="B15" s="70">
         <v>10</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="61" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B16" s="89">
+      <c r="B16" s="70">
         <v>11</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="73" t="s">
         <v>304</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="70" t="s">
         <v>295</v>
       </c>
       <c r="F16"/>
@@ -6163,6 +6163,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009127BD2B00F3D4418F8B1A1DE2622F27" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c85aa63cd1dea6e40c8924b6d0684b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524" xmlns:ns4="598b19a9-468d-4fa1-bbd0-605700564065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7a27c376ae090ec9e3df79c674288b5" ns3:_="" ns4:_="">
     <xsd:import namespace="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
@@ -6373,12 +6379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6389,6 +6389,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BAC2BB8-0323-479F-9AFD-3C9F0DCA6209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6407,23 +6424,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9FB353-9ED8-4C0F-BC35-41F04E8F740C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="598b19a9-468d-4fa1-bbd0-605700564065"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4b2f799c-8ef6-47d9-8ab3-6c6f166e2524"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A9A59F-905C-426B-BF04-40C4D400CA49}">
   <ds:schemaRefs>
